--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,70 +43,73 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>probably</t>
   </si>
   <si>
     <t>small</t>
@@ -115,88 +118,103 @@
     <t>low</t>
   </si>
   <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>lasted</t>
+    <t>less</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>tried</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>return</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>minutes</t>
@@ -205,115 +223,91 @@
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>product</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>need</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>looks</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>think</t>
   </si>
   <si>
-    <t>make</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>two</t>
@@ -322,145 +316,154 @@
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>love</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>elf</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>learn</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>play</t>
@@ -469,10 +472,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>well</t>
+    <t>gift</t>
   </si>
   <si>
     <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>good</t>
@@ -847,7 +853,7 @@
         <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -929,13 +935,13 @@
         <v>110</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -955,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K4">
-        <v>0.8928571428571429</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1005,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1029,13 +1035,13 @@
         <v>112</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.85</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1055,13 +1061,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8148148148148148</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1073,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K6">
-        <v>0.8518518518518519</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1105,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K7">
-        <v>0.8279569892473119</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L7">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1155,13 +1161,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7887323943661971</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1173,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1205,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7727272727272727</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1223,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K9">
-        <v>0.7916666666666666</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1247,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1255,13 +1261,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1273,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K10">
-        <v>0.6981132075471698</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1297,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1305,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1323,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K11">
-        <v>0.6086956521739131</v>
+        <v>0.5761494252873564</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1344,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1355,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7105263157894737</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>119</v>
       </c>
       <c r="K12">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L12">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1405,13 +1411,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6935483870967742</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1423,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K13">
-        <v>0.5311203319502075</v>
+        <v>0.5394190871369294</v>
       </c>
       <c r="L13">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M13">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1455,13 +1461,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6818181818181818</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1473,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K14">
-        <v>0.4795081967213115</v>
+        <v>0.4675963904840033</v>
       </c>
       <c r="L14">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="M14">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1494,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1505,13 +1511,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6818181818181818</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1523,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K15">
-        <v>0.382262996941896</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>202</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1555,13 +1561,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.68</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1573,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K16">
-        <v>0.3666666666666666</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1597,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1605,13 +1611,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6554054054054054</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1623,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="K17">
-        <v>0.3617021276595745</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1655,13 +1661,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6407766990291263</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1673,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="K18">
-        <v>0.3554216867469879</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1697,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1705,13 +1711,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1723,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K19">
-        <v>0.3544973544973545</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1755,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5966386554621849</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1773,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K20">
-        <v>0.3396226415094339</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1797,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1805,13 +1811,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5925925925925926</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1823,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="K21">
-        <v>0.3272727272727273</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L21">
         <v>18</v>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1855,13 +1861,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1873,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K22">
-        <v>0.3050847457627119</v>
+        <v>0.3046875</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1905,13 +1911,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5818181818181818</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1923,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K23">
-        <v>0.2587412587412588</v>
+        <v>0.28125</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1947,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1955,13 +1961,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1973,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>131</v>
       </c>
       <c r="K24">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1997,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2005,13 +2011,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5476190476190477</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2023,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>132</v>
       </c>
       <c r="K25">
-        <v>0.25</v>
+        <v>0.232</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2055,13 +2061,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2073,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K26">
-        <v>0.2311827956989247</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2097,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2105,13 +2111,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5161290322580645</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2123,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K27">
-        <v>0.2168674698795181</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2155,13 +2161,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.515625</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2173,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K28">
-        <v>0.216</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2197,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2205,7 +2211,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -2223,31 +2229,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>136</v>
       </c>
       <c r="K29">
-        <v>0.2105263157894737</v>
+        <v>0.1980718667835232</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>60</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2255,13 +2261,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2273,31 +2279,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>137</v>
       </c>
       <c r="K30">
-        <v>0.1904761904761905</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2305,13 +2311,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4666666666666667</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2323,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>138</v>
       </c>
       <c r="K31">
-        <v>0.1794871794871795</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2355,13 +2361,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4631578947368421</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2373,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>139</v>
       </c>
       <c r="K32">
-        <v>0.1724137931034483</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2397,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2405,13 +2411,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.462962962962963</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2423,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K33">
-        <v>0.1700262927256792</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L33">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>947</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2455,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -2473,31 +2479,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K34">
-        <v>0.1027308192457737</v>
+        <v>0.1116883116883117</v>
       </c>
       <c r="L34">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M34">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1380</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2505,13 +2511,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4523809523809524</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2523,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K35">
-        <v>0.1016042780748663</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2547,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>336</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2555,13 +2561,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4489795918367347</v>
+        <v>0.40625</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2573,31 +2579,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>143</v>
       </c>
       <c r="K36">
-        <v>0.1</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>144</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2605,13 +2611,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4444444444444444</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2623,31 +2629,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>144</v>
       </c>
       <c r="K37">
-        <v>0.09803921568627451</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>138</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2655,13 +2661,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4251968503937008</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2673,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>145</v>
       </c>
       <c r="K38">
-        <v>0.09192200557103064</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>326</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2705,37 +2711,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4140625</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C39">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K39">
-        <v>0.08949416342412451</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2755,13 +2761,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4096385542168675</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2773,19 +2779,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K40">
-        <v>0.07586206896551724</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2797,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2805,49 +2811,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C41">
         <v>22</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K41">
-        <v>0.06172839506172839</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>304</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2855,13 +2861,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3968253968253968</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2873,31 +2879,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>149</v>
       </c>
       <c r="K42">
-        <v>0.0534045393858478</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>709</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2905,13 +2911,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.396551724137931</v>
+        <v>0.3671875</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2923,31 +2929,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K43">
-        <v>0.05030181086519115</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>472</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2955,49 +2961,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3953488372093023</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>151</v>
       </c>
       <c r="K44">
-        <v>0.04603580562659847</v>
+        <v>0.04627766599597585</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>373</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3005,13 +3011,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3932584269662922</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3023,31 +3029,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>152</v>
       </c>
       <c r="K45">
-        <v>0.03191489361702127</v>
+        <v>0.04297994269340974</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>546</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3055,13 +3061,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3888888888888889</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3073,31 +3079,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>153</v>
       </c>
       <c r="K46">
-        <v>0.02857142857142857</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>680</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3105,13 +3111,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3880597014925373</v>
+        <v>0.3125</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3123,7 +3129,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47">
+        <v>0.03496503496503497</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>0.79</v>
+      </c>
+      <c r="O47">
+        <v>0.21</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3131,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3791469194312796</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3149,21 +3179,45 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48">
+        <v>0.03428571428571429</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>29</v>
+      </c>
+      <c r="N48">
+        <v>0.83</v>
+      </c>
+      <c r="O48">
+        <v>0.17</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3666666666666666</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3175,21 +3229,45 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49">
+        <v>0.02662721893491124</v>
+      </c>
+      <c r="L49">
+        <v>18</v>
+      </c>
+      <c r="M49">
+        <v>34</v>
+      </c>
+      <c r="N49">
+        <v>0.53</v>
+      </c>
+      <c r="O49">
+        <v>0.47</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3541666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3201,21 +3279,21 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3278688524590164</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3227,21 +3305,21 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3214285714285715</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3253,21 +3331,21 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3163265306122449</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3279,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3148148148148148</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3305,21 +3383,21 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.301980198019802</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="C55">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3331,21 +3409,21 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2567567567567567</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3357,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2564102564102564</v>
+        <v>0.24</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3383,21 +3461,21 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2474226804123711</v>
+        <v>0.2355072463768116</v>
       </c>
       <c r="C58">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D58">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3409,21 +3487,21 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2463768115942029</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3435,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2419354838709677</v>
+        <v>0.23</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3461,47 +3539,47 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2297297297297297</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2222222222222222</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3513,15 +3591,15 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.211864406779661</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C63">
         <v>25</v>
@@ -3539,21 +3617,21 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2056962025316456</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C64">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3565,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>251</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3573,25 +3651,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2014388489208633</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C65">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>111</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3599,25 +3677,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1962025316455696</v>
+        <v>0.1936416184971098</v>
       </c>
       <c r="C66">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D66">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3625,13 +3703,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1958762886597938</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3643,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3651,13 +3729,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.195</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C68">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D68">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3669,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>161</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3677,13 +3755,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1923076923076923</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3695,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3703,13 +3781,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1920289855072464</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3721,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3729,13 +3807,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.191588785046729</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C71">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3747,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3755,13 +3833,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1901931649331352</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C72">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D72">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E72">
         <v>0.01</v>
@@ -3773,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3781,25 +3859,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1786743515850144</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C73">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>285</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3807,13 +3885,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1648351648351648</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3825,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3833,13 +3911,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1592356687898089</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3851,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3859,13 +3937,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.154639175257732</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3877,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>82</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3885,13 +3963,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1518324607329843</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="C77">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3903,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3911,25 +3989,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1428571428571428</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E78">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F78">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>108</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3937,25 +4015,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.139917695473251</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E79">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3963,13 +4041,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1343612334801762</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C80">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3981,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>393</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3989,13 +4067,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1314285714285714</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4007,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4015,25 +4093,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1298701298701299</v>
+        <v>0.1146067415730337</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>134</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4041,13 +4119,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1230769230769231</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4059,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4067,22 +4145,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1178082191780822</v>
+        <v>0.1129476584022039</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D84">
         <v>43</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>322</v>
@@ -4093,25 +4171,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1090225563909774</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>237</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4119,25 +4197,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1053811659192825</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C86">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>399</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4145,25 +4223,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1027027027027027</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C87">
         <v>19</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F87">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4171,25 +4249,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1005917159763314</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E88">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4197,25 +4275,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09836065573770492</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4223,13 +4301,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09316770186335403</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4241,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>146</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4249,25 +4327,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09195402298850575</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>158</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4275,25 +4353,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08960573476702509</v>
+        <v>0.08253968253968254</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F92">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4301,25 +4379,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08333333333333333</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="C93">
         <v>16</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4327,25 +4405,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.0821529745042493</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E94">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F94">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>324</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4353,25 +4431,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08163265306122448</v>
+        <v>0.06605222734254992</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>180</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4379,25 +4457,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.07920792079207921</v>
+        <v>0.0589622641509434</v>
       </c>
       <c r="C96">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D96">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E96">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="F96">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>558</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4405,25 +4483,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.0761904761904762</v>
+        <v>0.05761843790012804</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D97">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E97">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="F97">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>291</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4431,25 +4509,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.07476635514018691</v>
+        <v>0.05152224824355972</v>
       </c>
       <c r="C98">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E98">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F98">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4457,25 +4535,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0611764705882353</v>
+        <v>0.04558404558404559</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>399</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4483,25 +4561,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.05828220858895705</v>
+        <v>0.038</v>
       </c>
       <c r="C100">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F100">
-        <v>0.9299999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>614</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4509,25 +4587,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05076142131979695</v>
+        <v>0.03440860215053763</v>
       </c>
       <c r="C101">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E101">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="F101">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>748</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4535,13 +4613,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04597701149425287</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E102">
         <v>0.38</v>
@@ -4553,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4561,25 +4639,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04183266932270916</v>
+        <v>0.02373887240356083</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E103">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="F103">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>481</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
